--- a/biology/Botanique/Eutrema/Eutrema.xlsx
+++ b/biology/Botanique/Eutrema/Eutrema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eutrema est un genre de plantes à fleurs de la famille des Brassicaceae, comportant plusieurs espèces dont :
 Eutrema japonicum – (wasabi japonais), aussi connue sous le nom Wasabia japonica (Miq.) Matsum., que l'on trouve sur le marché, principalement sous les formes :
@@ -489,8 +501,8 @@
 Eutrema japonicum 'Mazuma' (真妻)
 Eutrema tenue – aussi connue sous le nom Wasabia tenuis (Miq.) Matsum., avec notamment la variété :
 Eutrema tenuis (Miq.) Matsum. var. okinosimensis (Taken.)
-Eutrema koreanum (wasabi coréen) est maintenant classé dans le genre Cardamine sous le nom Cardamine pseudowasabi H.Shin &amp; Y.D.Kim[2].
-Le nom vient du grec εὐ- (eu-) « bien » et τρῆμα (trêma) « trou », allusion à une perforation dans la cloison du fruit[3].
+Eutrema koreanum (wasabi coréen) est maintenant classé dans le genre Cardamine sous le nom Cardamine pseudowasabi H.Shin &amp; Y.D.Kim.
+Le nom vient du grec εὐ- (eu-) « bien » et τρῆμα (trêma) « trou », allusion à une perforation dans la cloison du fruit.
 </t>
         </is>
       </c>
@@ -519,9 +531,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (9 juillet 2014)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (9 juillet 2014) :
 Eutrema altaicum
 Eutrema botschantzevii
 Eutrema bouffordii
@@ -549,16 +563,16 @@
 Eutrema wuchengyii
 Eutrema yungshunensis
 Eutrema yunnanense
-Selon GRIN            (9 juillet 2014)[5] :
+Selon GRIN            (9 juillet 2014) :
 Eutrema edwardsii R. Br.
 Eutrema japonica (Miq.) Koidz.
 Eutrema penlandii Rollins
 Eutrema tenue (Miq.) Makino
-Selon ITIS      (9 juillet 2014)[6] :
+Selon ITIS      (9 juillet 2014) :
 Eutrema edwardsii R. Br.
 Eutrema japonicum (Miq.) Koidz.
 Eutrema salsugineum (Pall.) Al-Shehbaz &amp; Warwick
-Selon The Plant List            (9 juillet 2014)[7] :
+Selon The Plant List            (9 juillet 2014) :
 Eutrema altaicum (C.A.Mey.) Al-Shehbaz &amp; Warwick
 Eutrema botschantzevii (D.A.German) Al-Shehbaz &amp; Warwick
 Eutrema boufordii Al-Shehbaz
@@ -590,7 +604,7 @@
 Eutrema yungshunense (W.T.Wang) Al-Shehbaz &amp; Warwick
 Eutrema yungshunensis (W.T. Wang) Al-Shehbaz &amp; Warwick
 Eutrema yunnanense Franch.
-Selon Tropicos                                           (9 juillet 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 juillet 2014) (Attention liste brute contenant possiblement des synonymes) :
 Eutrema alpestre Ledeb.
 Eutrema altaicum (C.A. Mey.) Al-Shehbaz &amp; S.I. Warwick
 Eutrema arenicola Richardson ex Hook.
